--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -447,25 +447,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -473,25 +473,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -518,6 +518,32 @@
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,15 +123,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗（/1000）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产时间（/1000）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>300,3600,1010,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出（公式：y=ax+b;参数：a，b；x为等级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗（/1000；公式：y=ax^（c+d（x-1））；参数：a，b，c，d；x为等级）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +490,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,16 +520,16 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -558,36 +558,36 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -595,22 +595,22 @@
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4">
         <v>10101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4">
         <v>1000</v>
@@ -624,22 +624,22 @@
         <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <v>10102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4">
         <v>60</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4">
         <v>2000</v>
@@ -653,22 +653,22 @@
         <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4">
         <v>10103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4">
         <v>720</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4">
         <v>6000</v>

--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -487,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,7 +677,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>升阶变化数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +132,26 @@
   </si>
   <si>
     <t>消耗（/1000；公式：y=ax^（c+d（x-1））；参数：a，b，c，d；x为等级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶（公式为累加，最后一位循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,50,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶变化数(升阶后读取数值，并将数值减一，数值小于零则产出翻倍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +169,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -200,13 +223,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
@@ -501,9 +526,11 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,19 +547,22 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +590,11 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -587,30 +620,33 @@
         <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4">
         <v>10101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4">
         <v>1000</v>
@@ -618,28 +654,31 @@
       <c r="I4" s="2">
         <v>1</v>
       </c>
+      <c r="J4" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4">
         <v>10102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4">
         <v>60</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="4">
         <v>2000</v>
@@ -647,34 +686,40 @@
       <c r="I5" s="2">
         <v>2</v>
       </c>
+      <c r="J5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4">
         <v>10103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4">
         <v>720</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4">
         <v>6000</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗（/1000；公式：y=ax^（c+d（x-1））；参数：a，b，c，d；x为等级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>levelup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +148,10 @@
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗（/1000；公式：y=ax^（c+d（x-1）+b）+b；参数：a，b，c，d；x为等级）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -550,16 +550,16 @@
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -591,7 +591,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -608,13 +608,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -623,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -687,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300,3600,1010,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产出（公式：y=ax+b;参数：a，b；x为等级）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,7 +147,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗（/1000；公式：y=ax^（c+d（x-1）+b）+b；参数：a，b，c，d；x为等级）</t>
+    <t>消耗（/1000；公式：y=a(x-1)^（c（x^e-1）+d）+b；参数：a，b，c，d，e；x为等级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,3800,22,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿4</t>
+  </si>
+  <si>
+    <t>矿5</t>
+  </si>
+  <si>
+    <t>矿6</t>
+  </si>
+  <si>
+    <t>矿7</t>
+  </si>
+  <si>
+    <t>矿8</t>
+  </si>
+  <si>
+    <t>矿9</t>
+  </si>
+  <si>
+    <t>矿10</t>
+  </si>
+  <si>
+    <t>kuang_4</t>
+  </si>
+  <si>
+    <t>kuang_5</t>
+  </si>
+  <si>
+    <t>kuang_6</t>
+  </si>
+  <si>
+    <t>kuang_7</t>
+  </si>
+  <si>
+    <t>kuang_8</t>
+  </si>
+  <si>
+    <t>kuang_9</t>
+  </si>
+  <si>
+    <t>kuang_10</t>
+  </si>
+  <si>
+    <t>43200,43200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51840,51840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,60000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108000,700000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>864000,8000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>622080,622080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124416000,1152000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10368000,96000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7464960,7464960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1492992000,13824000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89579520,89579520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17915904000,165888000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1074954240,1074954240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214990848000,1990656000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12899450880,12899450880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2579890176000,23887872000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶效果倍率（公式为累加，最后一位循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +294,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -223,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -232,6 +358,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -512,25 +641,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="36.875" customWidth="1"/>
     <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,22 +676,25 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>29</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,10 +723,13 @@
         <v>15</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>28</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -611,10 +746,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -623,10 +758,13 @@
         <v>16</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>32</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>101</v>
       </c>
@@ -646,7 +784,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H4" s="4">
         <v>1000</v>
@@ -655,10 +793,13 @@
         <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>102</v>
       </c>
@@ -678,7 +819,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H5" s="4">
         <v>2000</v>
@@ -687,10 +828,13 @@
         <v>2</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>103</v>
       </c>
@@ -710,16 +854,264 @@
         <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4">
         <v>6000</v>
       </c>
       <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4">
+        <v>104</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10104</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="8">
+        <v>8000</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="8">
+        <v>12000</v>
+      </c>
+      <c r="I7" s="2">
         <v>4</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>31</v>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4">
+        <v>105</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10105</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8">
+        <v>95800</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="8">
+        <v>24000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4">
+        <v>106</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10106</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1150000</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="8">
+        <v>96000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4">
+        <v>107</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10107</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8">
+        <v>13900000</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="8">
+        <v>384000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4">
+        <v>108</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10108</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="8">
+        <v>165500000</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1536000</v>
+      </c>
+      <c r="I11" s="8">
+        <v>11</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4">
+        <v>109</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4">
+        <v>10109</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1986000000</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="8">
+        <v>6144000</v>
+      </c>
+      <c r="I12" s="8">
+        <v>13</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4">
+        <v>110</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4">
+        <v>10110</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="8">
+        <v>23830000000</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="8">
+        <v>36864000</v>
+      </c>
+      <c r="I13" s="8">
+        <v>16</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗（/1000；公式：y=a(x-1)^（c（x^e-1）+d）+b；参数：a，b，c，d，e；x为等级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200,3800,22,1,863</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,6 +266,10 @@
   </si>
   <si>
     <t>2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗（/1000；公式：y=a(x-1)^（c（x-1）^e+d）+b；参数：a，b，c，d，e；x为等级）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,8 +303,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -644,7 +643,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -678,8 +677,8 @@
       <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
+      <c r="G1" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -690,8 +689,8 @@
       <c r="J1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>65</v>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -725,8 +724,8 @@
       <c r="J2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>66</v>
+      <c r="K2" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -760,7 +759,7 @@
       <c r="J3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -784,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4">
         <v>1000</v>
@@ -795,8 +794,8 @@
       <c r="J4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>67</v>
+      <c r="K4" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -819,7 +818,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="4">
         <v>2000</v>
@@ -830,8 +829,8 @@
       <c r="J5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>67</v>
+      <c r="K5" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -854,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4">
         <v>6000</v>
@@ -865,8 +864,8 @@
       <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>67</v>
+      <c r="K6" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -874,22 +873,22 @@
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4">
         <v>10104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="8">
         <v>8000</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="8">
         <v>12000</v>
@@ -900,8 +899,8 @@
       <c r="J7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>67</v>
+      <c r="K7" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -909,22 +908,22 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4">
         <v>10105</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="8">
         <v>95800</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="8">
         <v>24000</v>
@@ -935,8 +934,8 @@
       <c r="J8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>67</v>
+      <c r="K8" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -944,22 +943,22 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4">
         <v>10106</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="8">
         <v>1150000</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="H9" s="8">
         <v>96000</v>
@@ -970,8 +969,8 @@
       <c r="J9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>67</v>
+      <c r="K9" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -979,22 +978,22 @@
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4">
         <v>10107</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="8">
         <v>13900000</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="8">
         <v>384000</v>
@@ -1005,8 +1004,8 @@
       <c r="J10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>67</v>
+      <c r="K10" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1014,22 +1013,22 @@
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4">
         <v>10108</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="8">
         <v>165500000</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="8">
         <v>1536000</v>
@@ -1040,8 +1039,8 @@
       <c r="J11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>67</v>
+      <c r="K11" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1049,22 +1048,22 @@
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4">
         <v>10109</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="8">
         <v>1986000000</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="H12" s="8">
         <v>6144000</v>
@@ -1075,8 +1074,8 @@
       <c r="J12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>67</v>
+      <c r="K12" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1084,22 +1083,22 @@
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4">
         <v>10110</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="8">
         <v>23830000000</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="8">
         <v>36864000</v>
@@ -1110,8 +1109,8 @@
       <c r="J13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>67</v>
+      <c r="K13" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,14 @@
   </si>
   <si>
     <t>消耗（/1000；公式：y=a(x-1)^（c（x-1）^e+d）+b；参数：a，b，c，d，e；x为等级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +651,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -742,13 +750,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>

--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -119,165 +119,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>产出（公式：y=ax+b;参数：a，b；x为等级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶（公式为累加，最后一位循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,50,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶变化数(升阶后读取数值，并将数值减一，数值小于零则产出翻倍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,3800,22,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿4</t>
+  </si>
+  <si>
+    <t>矿5</t>
+  </si>
+  <si>
+    <t>矿6</t>
+  </si>
+  <si>
+    <t>矿7</t>
+  </si>
+  <si>
+    <t>矿8</t>
+  </si>
+  <si>
+    <t>矿9</t>
+  </si>
+  <si>
+    <t>矿10</t>
+  </si>
+  <si>
+    <t>kuang_4</t>
+  </si>
+  <si>
+    <t>kuang_5</t>
+  </si>
+  <si>
+    <t>kuang_6</t>
+  </si>
+  <si>
+    <t>kuang_7</t>
+  </si>
+  <si>
+    <t>kuang_8</t>
+  </si>
+  <si>
+    <t>kuang_9</t>
+  </si>
+  <si>
+    <t>kuang_10</t>
+  </si>
+  <si>
+    <t>43200,43200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51840,51840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,60000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108000,700000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>864000,8000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>622080,622080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124416000,1152000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10368000,96000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7464960,7464960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1492992000,13824000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89579520,89579520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17915904000,165888000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1074954240,1074954240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214990848000,1990656000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12899450880,12899450880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2579890176000,23887872000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗（/1000；公式：y=a(x-1)^（c（x-1）^e+d）+b；参数：a，b，c，d，e；x为等级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>生产时间（/1000）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产出（公式：y=ax+b;参数：a，b；x为等级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升阶（公式为累加，最后一位循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,25,50,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升阶变化数(升阶后读取数值，并将数值减一，数值小于零则产出翻倍)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,3800,22,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿4</t>
-  </si>
-  <si>
-    <t>矿5</t>
-  </si>
-  <si>
-    <t>矿6</t>
-  </si>
-  <si>
-    <t>矿7</t>
-  </si>
-  <si>
-    <t>矿8</t>
-  </si>
-  <si>
-    <t>矿9</t>
-  </si>
-  <si>
-    <t>矿10</t>
-  </si>
-  <si>
-    <t>kuang_4</t>
-  </si>
-  <si>
-    <t>kuang_5</t>
-  </si>
-  <si>
-    <t>kuang_6</t>
-  </si>
-  <si>
-    <t>kuang_7</t>
-  </si>
-  <si>
-    <t>kuang_8</t>
-  </si>
-  <si>
-    <t>kuang_9</t>
-  </si>
-  <si>
-    <t>kuang_10</t>
-  </si>
-  <si>
-    <t>43200,43200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51840,51840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000,60000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108000,700000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>864000,8000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>622080,622080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124416000,1152000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10368000,96000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7464960,7464960</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1492992000,13824000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89579520,89579520</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17915904000,165888000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1074954240,1074954240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>214990848000,1990656000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12899450880,12899450880</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2579890176000,23887872000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升阶效果倍率（公式为累加，最后一位循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelpar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗（/1000；公式：y=a(x-1)^（c（x-1）^e+d）+b；参数：a，b，c，d，e；x为等级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long[]</t>
+    <t>升阶效果倍率（/1000，公式为累加，最后一位循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -352,11 +352,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -368,6 +394,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -651,7 +679,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -683,22 +711,22 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -730,10 +758,10 @@
         <v>15</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -750,13 +778,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -765,10 +793,10 @@
         <v>16</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -791,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="4">
         <v>1000</v>
@@ -799,11 +827,11 @@
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>66</v>
+      <c r="J4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -826,7 +854,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="4">
         <v>2000</v>
@@ -834,11 +862,11 @@
       <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>66</v>
+      <c r="J5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -861,7 +889,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="4">
         <v>6000</v>
@@ -869,11 +897,11 @@
       <c r="I6" s="2">
         <v>3</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>66</v>
+      <c r="J6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -881,22 +909,22 @@
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4">
         <v>10104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8">
         <v>8000</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="8">
         <v>12000</v>
@@ -904,11 +932,11 @@
       <c r="I7" s="2">
         <v>4</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>66</v>
+      <c r="J7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -916,22 +944,22 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
         <v>10105</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="8">
         <v>95800</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="8">
         <v>24000</v>
@@ -939,11 +967,11 @@
       <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>66</v>
+      <c r="J8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -951,22 +979,22 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4">
         <v>10106</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="8">
         <v>1150000</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="8">
         <v>96000</v>
@@ -974,11 +1002,11 @@
       <c r="I9" s="2">
         <v>7</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>66</v>
+      <c r="J9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -986,22 +1014,22 @@
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
         <v>10107</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="8">
         <v>13900000</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="H10" s="8">
         <v>384000</v>
@@ -1009,11 +1037,11 @@
       <c r="I10" s="2">
         <v>9</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>66</v>
+      <c r="J10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1021,22 +1049,22 @@
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4">
         <v>10108</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="8">
         <v>165500000</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="H11" s="8">
         <v>1536000</v>
@@ -1044,11 +1072,11 @@
       <c r="I11" s="8">
         <v>11</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>66</v>
+      <c r="J11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1056,22 +1084,22 @@
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4">
         <v>10109</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="8">
         <v>1986000000</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="H12" s="8">
         <v>6144000</v>
@@ -1079,11 +1107,11 @@
       <c r="I12" s="8">
         <v>13</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>66</v>
+      <c r="J12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1091,22 +1119,22 @@
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4">
         <v>10110</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="8">
         <v>23830000000</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="H13" s="8">
         <v>36864000</v>
@@ -1114,11 +1142,11 @@
       <c r="I13" s="8">
         <v>16</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>66</v>
+      <c r="J13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200,3800,22,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>矿4</t>
   </si>
   <si>
@@ -197,62 +193,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12000,60000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108000,700000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>864000,8000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>622080,622080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>124416000,1152000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10368000,96000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7464960,7464960</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1492992000,13824000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>89579520,89579520</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17915904000,165888000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1074954240,1074954240</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>214990848000,1990656000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12899450880,12899450880</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2579890176000,23887872000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>levelpar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +238,46 @@
   </si>
   <si>
     <t>2000,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,3800,22,1000,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,60000,24,1000,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108000,700000,24,1000,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>864000,8000000,24,1000,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10368000,96000000,24,1000,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124416000,1152000000,24,1000,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1492992000,13824000000,24,1000,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17915904000,165888000000,24,1000,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214990848000,1990656000000,24,1000,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2579890176000,23887872000000,24,1000,863</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +679,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -688,7 +688,7 @@
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="36.875" customWidth="1"/>
+    <col min="7" max="7" width="40.75" customWidth="1"/>
     <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="21.5" customWidth="1"/>
@@ -714,10 +714,10 @@
         <v>26</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>30</v>
@@ -726,7 +726,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -761,7 +761,7 @@
         <v>27</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -778,13 +778,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -819,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H4" s="4">
         <v>1000</v>
@@ -831,7 +831,7 @@
         <v>29</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -854,7 +854,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H5" s="4">
         <v>2000</v>
@@ -866,7 +866,7 @@
         <v>29</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -889,7 +889,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H6" s="4">
         <v>6000</v>
@@ -901,7 +901,7 @@
         <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -909,22 +909,22 @@
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4">
         <v>10104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8">
         <v>8000</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H7" s="8">
         <v>12000</v>
@@ -936,7 +936,7 @@
         <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -944,22 +944,22 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4">
         <v>10105</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8">
         <v>95800</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H8" s="8">
         <v>24000</v>
@@ -971,7 +971,7 @@
         <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -979,22 +979,22 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4">
         <v>10106</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="8">
         <v>1150000</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H9" s="8">
         <v>96000</v>
@@ -1006,7 +1006,7 @@
         <v>29</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1014,22 +1014,22 @@
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4">
         <v>10107</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="8">
         <v>13900000</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H10" s="8">
         <v>384000</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1049,22 +1049,22 @@
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4">
         <v>10108</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="8">
         <v>165500000</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H11" s="8">
         <v>1536000</v>
@@ -1076,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1084,22 +1084,22 @@
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4">
         <v>10109</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="8">
         <v>1986000000</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H12" s="8">
         <v>6144000</v>
@@ -1111,7 +1111,7 @@
         <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1119,22 +1119,22 @@
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4">
         <v>10110</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="8">
         <v>23830000000</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H13" s="8">
         <v>36864000</v>
@@ -1146,7 +1146,7 @@
         <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -143,141 +143,141 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>矿4</t>
+  </si>
+  <si>
+    <t>矿5</t>
+  </si>
+  <si>
+    <t>矿6</t>
+  </si>
+  <si>
+    <t>矿7</t>
+  </si>
+  <si>
+    <t>矿8</t>
+  </si>
+  <si>
+    <t>矿9</t>
+  </si>
+  <si>
+    <t>矿10</t>
+  </si>
+  <si>
+    <t>kuang_4</t>
+  </si>
+  <si>
+    <t>kuang_5</t>
+  </si>
+  <si>
+    <t>kuang_6</t>
+  </si>
+  <si>
+    <t>kuang_7</t>
+  </si>
+  <si>
+    <t>kuang_8</t>
+  </si>
+  <si>
+    <t>kuang_9</t>
+  </si>
+  <si>
+    <t>kuang_10</t>
+  </si>
+  <si>
+    <t>43200,43200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51840,51840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,60000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108000,700000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>864000,8000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>622080,622080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124416000,1152000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10368000,96000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7464960,7464960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1492992000,13824000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89579520,89579520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17915904000,165888000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1074954240,1074954240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214990848000,1990656000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12899450880,12899450880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2579890176000,23887872000000,24,1,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产时间（/1000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶效果倍率（/1000，公式为累加，最后一位循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>200,3800,22,1,863</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>矿4</t>
-  </si>
-  <si>
-    <t>矿5</t>
-  </si>
-  <si>
-    <t>矿6</t>
-  </si>
-  <si>
-    <t>矿7</t>
-  </si>
-  <si>
-    <t>矿8</t>
-  </si>
-  <si>
-    <t>矿9</t>
-  </si>
-  <si>
-    <t>矿10</t>
-  </si>
-  <si>
-    <t>kuang_4</t>
-  </si>
-  <si>
-    <t>kuang_5</t>
-  </si>
-  <si>
-    <t>kuang_6</t>
-  </si>
-  <si>
-    <t>kuang_7</t>
-  </si>
-  <si>
-    <t>kuang_8</t>
-  </si>
-  <si>
-    <t>kuang_9</t>
-  </si>
-  <si>
-    <t>kuang_10</t>
-  </si>
-  <si>
-    <t>43200,43200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51840,51840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000,60000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108000,700000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>864000,8000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>622080,622080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124416000,1152000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10368000,96000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7464960,7464960</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1492992000,13824000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89579520,89579520</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17915904000,165888000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1074954240,1074954240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>214990848000,1990656000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12899450880,12899450880</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2579890176000,23887872000000,24,1,863</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelpar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗（/1000；公式：y=a(x-1)^（c（x-1）^e+d）+b；参数：a，b，c，d，e；x为等级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产时间（/1000）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升阶效果倍率（/1000，公式为累加，最后一位循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +679,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -714,10 +714,10 @@
         <v>26</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>30</v>
@@ -726,7 +726,7 @@
         <v>28</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -761,7 +761,7 @@
         <v>27</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -778,13 +778,13 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -819,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="H4" s="4">
         <v>1000</v>
@@ -831,7 +831,7 @@
         <v>29</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -854,7 +854,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="4">
         <v>2000</v>
@@ -866,7 +866,7 @@
         <v>29</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -889,7 +889,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="4">
         <v>6000</v>
@@ -901,7 +901,7 @@
         <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -909,22 +909,22 @@
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4">
         <v>10104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8">
         <v>8000</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="8">
         <v>12000</v>
@@ -936,7 +936,7 @@
         <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -944,22 +944,22 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4">
         <v>10105</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8">
         <v>95800</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="8">
         <v>24000</v>
@@ -971,7 +971,7 @@
         <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -979,22 +979,22 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4">
         <v>10106</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="8">
         <v>1150000</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="8">
         <v>96000</v>
@@ -1006,7 +1006,7 @@
         <v>29</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1014,22 +1014,22 @@
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4">
         <v>10107</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="8">
         <v>13900000</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="8">
         <v>384000</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1049,22 +1049,22 @@
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4">
         <v>10108</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="8">
         <v>165500000</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="H11" s="8">
         <v>1536000</v>
@@ -1076,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1084,22 +1084,22 @@
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4">
         <v>10109</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="8">
         <v>1986000000</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="H12" s="8">
         <v>6144000</v>
@@ -1111,7 +1111,7 @@
         <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1119,22 +1119,22 @@
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4">
         <v>10110</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="8">
         <v>23830000000</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="8">
         <v>36864000</v>
@@ -1146,7 +1146,7 @@
         <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解锁消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产出（公式：y=ax+b;参数：a，b；x为等级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>levelup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗（/1000；公式：y=a(x-1)^（c（x-1）^e+d）+b；参数：a，b，c，d，e；x为等级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +266,18 @@
   </si>
   <si>
     <t>2579890176000,23887872000000,24,1000,863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出（公式：y=ax+b;参数：a，b；x为等级；产出道具id：1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗（/1000；公式：y=a(x-1)^（c（x-1）^e+d）+b；参数：a，b，c，d，e；x为等级；消耗道具id：1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁消耗（消耗道具id：1）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +679,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -708,25 +708,25 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -755,48 +755,48 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -804,22 +804,22 @@
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4">
         <v>10101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H4" s="4">
         <v>1000</v>
@@ -828,10 +828,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -839,22 +839,22 @@
         <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4">
         <v>10102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4">
         <v>60</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H5" s="4">
         <v>2000</v>
@@ -863,10 +863,10 @@
         <v>2</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -874,22 +874,22 @@
         <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4">
         <v>10103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4">
         <v>720</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H6" s="4">
         <v>6000</v>
@@ -898,10 +898,10 @@
         <v>3</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -909,22 +909,22 @@
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4">
         <v>10104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="8">
         <v>8000</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H7" s="8">
         <v>12000</v>
@@ -933,10 +933,10 @@
         <v>4</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -944,22 +944,22 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4">
         <v>10105</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="8">
         <v>95800</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H8" s="8">
         <v>24000</v>
@@ -968,10 +968,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -979,22 +979,22 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4">
         <v>10106</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="8">
         <v>1150000</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H9" s="8">
         <v>96000</v>
@@ -1003,10 +1003,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1014,22 +1014,22 @@
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4">
         <v>10107</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="8">
         <v>13900000</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" s="8">
         <v>384000</v>
@@ -1038,10 +1038,10 @@
         <v>9</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1049,22 +1049,22 @@
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4">
         <v>10108</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="8">
         <v>165500000</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H11" s="8">
         <v>1536000</v>
@@ -1073,10 +1073,10 @@
         <v>11</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1084,22 +1084,22 @@
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4">
         <v>10109</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="8">
         <v>1986000000</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H12" s="8">
         <v>6144000</v>
@@ -1108,10 +1108,10 @@
         <v>13</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1119,22 +1119,22 @@
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4">
         <v>10110</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="8">
         <v>23830000000</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H13" s="8">
         <v>36864000</v>
@@ -1143,10 +1143,10 @@
         <v>16</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kuang_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,9 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kuang_2</t>
-  </si>
-  <si>
     <t>60,60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,9 +101,6 @@
     <t>矿3</t>
   </si>
   <si>
-    <t>kuang_3</t>
-  </si>
-  <si>
     <t>540,540</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,27 +146,6 @@
     <t>矿10</t>
   </si>
   <si>
-    <t>kuang_4</t>
-  </si>
-  <si>
-    <t>kuang_5</t>
-  </si>
-  <si>
-    <t>kuang_6</t>
-  </si>
-  <si>
-    <t>kuang_7</t>
-  </si>
-  <si>
-    <t>kuang_8</t>
-  </si>
-  <si>
-    <t>kuang_9</t>
-  </si>
-  <si>
-    <t>kuang_10</t>
-  </si>
-  <si>
     <t>43200,43200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,6 +248,36 @@
   <si>
     <t>解锁消耗（消耗道具id：1）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuang1</t>
+  </si>
+  <si>
+    <t>kuang2</t>
+  </si>
+  <si>
+    <t>kuang3</t>
+  </si>
+  <si>
+    <t>kuang4</t>
+  </si>
+  <si>
+    <t>kuang5</t>
+  </si>
+  <si>
+    <t>kuang6</t>
+  </si>
+  <si>
+    <t>kuang7</t>
+  </si>
+  <si>
+    <t>kuang8</t>
+  </si>
+  <si>
+    <t>kuang9</t>
+  </si>
+  <si>
+    <t>kuang10</t>
   </si>
 </sst>
 </file>
@@ -679,7 +678,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -708,25 +707,25 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -758,10 +757,10 @@
         <v>14</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -778,13 +777,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
@@ -793,10 +792,10 @@
         <v>15</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -810,16 +809,16 @@
         <v>10101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H4" s="4">
         <v>1000</v>
@@ -828,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -839,22 +838,22 @@
         <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
         <v>10102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E5" s="4">
         <v>60</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H5" s="4">
         <v>2000</v>
@@ -863,10 +862,10 @@
         <v>2</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -874,22 +873,22 @@
         <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
         <v>10103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4">
         <v>720</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H6" s="4">
         <v>6000</v>
@@ -898,10 +897,10 @@
         <v>3</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -909,22 +908,22 @@
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4">
         <v>10104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E7" s="8">
         <v>8000</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H7" s="8">
         <v>12000</v>
@@ -933,10 +932,10 @@
         <v>4</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -944,22 +943,22 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4">
         <v>10105</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E8" s="8">
         <v>95800</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H8" s="8">
         <v>24000</v>
@@ -968,10 +967,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -979,22 +978,22 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4">
         <v>10106</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E9" s="8">
         <v>1150000</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H9" s="8">
         <v>96000</v>
@@ -1003,10 +1002,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1014,22 +1013,22 @@
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4">
         <v>10107</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E10" s="8">
         <v>13900000</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H10" s="8">
         <v>384000</v>
@@ -1038,10 +1037,10 @@
         <v>9</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1049,22 +1048,22 @@
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
         <v>10108</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E11" s="8">
         <v>165500000</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H11" s="8">
         <v>1536000</v>
@@ -1073,10 +1072,10 @@
         <v>11</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1084,22 +1083,22 @@
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4">
         <v>10109</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E12" s="8">
         <v>1986000000</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H12" s="8">
         <v>6144000</v>
@@ -1108,10 +1107,10 @@
         <v>13</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1119,22 +1118,22 @@
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4">
         <v>10110</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E13" s="8">
         <v>23830000000</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H13" s="8">
         <v>36864000</v>
@@ -1143,10 +1142,10 @@
         <v>16</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/excel/mine.xlsx
+++ b/excel/mine.xlsx
@@ -242,42 +242,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>解锁消耗（消耗道具id：1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuang1</t>
+  </si>
+  <si>
+    <t>kuang2</t>
+  </si>
+  <si>
+    <t>kuang3</t>
+  </si>
+  <si>
+    <t>kuang4</t>
+  </si>
+  <si>
+    <t>kuang5</t>
+  </si>
+  <si>
+    <t>kuang6</t>
+  </si>
+  <si>
+    <t>kuang7</t>
+  </si>
+  <si>
+    <t>kuang8</t>
+  </si>
+  <si>
+    <t>kuang9</t>
+  </si>
+  <si>
+    <t>kuang10</t>
+  </si>
+  <si>
     <t>消耗（/1000；公式：y=a(x-1)^（c（x-1）^e+d）+b；参数：a，b，c，d，e；x为等级；消耗道具id：1）</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁消耗（消耗道具id：1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuang1</t>
-  </si>
-  <si>
-    <t>kuang2</t>
-  </si>
-  <si>
-    <t>kuang3</t>
-  </si>
-  <si>
-    <t>kuang4</t>
-  </si>
-  <si>
-    <t>kuang5</t>
-  </si>
-  <si>
-    <t>kuang6</t>
-  </si>
-  <si>
-    <t>kuang7</t>
-  </si>
-  <si>
-    <t>kuang8</t>
-  </si>
-  <si>
-    <t>kuang9</t>
-  </si>
-  <si>
-    <t>kuang10</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -707,13 +707,13 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>44</v>
@@ -809,9 +809,9 @@
         <v>10101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="4">
+        <v>59</v>
+      </c>
+      <c r="E4" s="5">
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -844,9 +844,9 @@
         <v>10102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="4">
+        <v>60</v>
+      </c>
+      <c r="E5" s="5">
         <v>60</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -879,9 +879,9 @@
         <v>10103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="4">
+        <v>61</v>
+      </c>
+      <c r="E6" s="5">
         <v>720</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -914,9 +914,9 @@
         <v>10104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="8">
+        <v>62</v>
+      </c>
+      <c r="E7" s="9">
         <v>8000</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -949,9 +949,9 @@
         <v>10105</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="8">
+        <v>63</v>
+      </c>
+      <c r="E8" s="9">
         <v>95800</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -984,9 +984,9 @@
         <v>10106</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="8">
+        <v>64</v>
+      </c>
+      <c r="E9" s="9">
         <v>1150000</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -1019,9 +1019,9 @@
         <v>10107</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="8">
+        <v>65</v>
+      </c>
+      <c r="E10" s="9">
         <v>13900000</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -1054,9 +1054,9 @@
         <v>10108</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="8">
+        <v>66</v>
+      </c>
+      <c r="E11" s="9">
         <v>165500000</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1089,9 +1089,9 @@
         <v>10109</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="8">
+        <v>67</v>
+      </c>
+      <c r="E12" s="9">
         <v>1986000000</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -1124,9 +1124,9 @@
         <v>10110</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="8">
+        <v>68</v>
+      </c>
+      <c r="E13" s="9">
         <v>23830000000</v>
       </c>
       <c r="F13" s="9" t="s">
